--- a/Code/Results/Cases/Case_2_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89194046032544</v>
+        <v>24.7167224679393</v>
       </c>
       <c r="C2">
-        <v>16.39226763957933</v>
+        <v>10.13485524762043</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.180440571991157</v>
+        <v>9.561315595542441</v>
       </c>
       <c r="F2">
-        <v>66.00935692554044</v>
+        <v>61.85349413635895</v>
       </c>
       <c r="G2">
-        <v>2.135666073668911</v>
+        <v>3.792688912083429</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.52605512239173</v>
+        <v>12.72773707422013</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.819343512004123</v>
+        <v>9.9377712289069</v>
       </c>
       <c r="M2">
-        <v>10.33557318442516</v>
+        <v>19.10156422396014</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.62737099329359</v>
+        <v>24.59982259580825</v>
       </c>
       <c r="C3">
-        <v>15.15836785824637</v>
+        <v>9.692736206038283</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.62807721324905</v>
+        <v>9.414366341636255</v>
       </c>
       <c r="F3">
-        <v>62.71284396740175</v>
+        <v>60.95161973743883</v>
       </c>
       <c r="G3">
-        <v>2.151398744347722</v>
+        <v>3.797775535139773</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.16697475150696</v>
+        <v>12.62877527113188</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.940808403489427</v>
+        <v>9.995897139369156</v>
       </c>
       <c r="M3">
-        <v>10.17080536190665</v>
+        <v>19.18990972600128</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.84501427477087</v>
+        <v>24.53778568476006</v>
       </c>
       <c r="C4">
-        <v>14.36905334445479</v>
+        <v>9.414989312602454</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.278398848039629</v>
+        <v>9.322784199976056</v>
       </c>
       <c r="F4">
-        <v>60.65495192935707</v>
+        <v>60.39682743005936</v>
       </c>
       <c r="G4">
-        <v>2.161192697584428</v>
+        <v>3.801055111744827</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.94589449550002</v>
+        <v>12.56733002910251</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.018764368999788</v>
+        <v>10.03350031881593</v>
       </c>
       <c r="M4">
-        <v>10.08498855456404</v>
+        <v>19.24975020337086</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.52492048855247</v>
+        <v>24.51497430297423</v>
       </c>
       <c r="C5">
-        <v>14.03915344570505</v>
+        <v>9.300425307040966</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.133226171313977</v>
+        <v>9.285146352752079</v>
       </c>
       <c r="F5">
-        <v>59.80805330513203</v>
+        <v>60.170664043623</v>
       </c>
       <c r="G5">
-        <v>2.165223833001174</v>
+        <v>3.80243106535808</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.85561425595172</v>
+        <v>12.54212457128045</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.051359918821624</v>
+        <v>10.04930677760731</v>
       </c>
       <c r="M5">
-        <v>10.05372851459708</v>
+        <v>19.27553947231622</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.47170018738758</v>
+        <v>24.51133611891744</v>
       </c>
       <c r="C6">
-        <v>13.98386814770497</v>
+        <v>9.281325014603052</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.108958446171163</v>
+        <v>9.278878135296926</v>
       </c>
       <c r="F6">
-        <v>59.66693560432951</v>
+        <v>60.1331101446881</v>
       </c>
       <c r="G6">
-        <v>2.165895789003212</v>
+        <v>3.802661932326575</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.84061110162632</v>
+        <v>12.53792935612864</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.056821901668582</v>
+        <v>10.05196064032718</v>
       </c>
       <c r="M6">
-        <v>10.04875758764896</v>
+        <v>19.27990644674785</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.84070219519665</v>
+        <v>24.53746802174898</v>
       </c>
       <c r="C7">
-        <v>14.36463793871049</v>
+        <v>9.413449567500896</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.276451850779653</v>
+        <v>9.32227785686103</v>
       </c>
       <c r="F7">
-        <v>60.64356350655275</v>
+        <v>60.39377740204621</v>
       </c>
       <c r="G7">
-        <v>2.161246892987398</v>
+        <v>3.801073508165697</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.94467774556187</v>
+        <v>12.56699076449482</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.019200634714084</v>
+        <v>10.03371153294739</v>
       </c>
       <c r="M7">
-        <v>10.08455214172655</v>
+        <v>19.25009232701553</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.45723318619375</v>
+        <v>24.67440712053321</v>
       </c>
       <c r="C8">
-        <v>15.97321960542903</v>
+        <v>9.983829781387236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.992143291576557</v>
+        <v>9.510942486233173</v>
       </c>
       <c r="F8">
-        <v>64.87980497765338</v>
+        <v>61.54285112532985</v>
       </c>
       <c r="G8">
-        <v>2.141066908728104</v>
+        <v>3.794410433407048</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.4023430524566</v>
+        <v>12.69376000852095</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.860508840175123</v>
+        <v>9.95741686557553</v>
       </c>
       <c r="M8">
-        <v>10.27548475214553</v>
+        <v>19.13086229630577</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60448623898237</v>
+        <v>25.0191449088072</v>
       </c>
       <c r="C9">
-        <v>18.890637244302</v>
+        <v>11.04485168006714</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.31506797948262</v>
+        <v>9.869169514381964</v>
       </c>
       <c r="F9">
-        <v>72.92051434893486</v>
+        <v>63.78009015468538</v>
       </c>
       <c r="G9">
-        <v>2.102229703902697</v>
+        <v>3.782576701470478</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.29755795526962</v>
+        <v>12.93669711247255</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.577539027664442</v>
+        <v>9.822911945388444</v>
       </c>
       <c r="M9">
-        <v>10.77863167273611</v>
+        <v>18.94160389344235</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.15268255946165</v>
+        <v>25.31714446138998</v>
       </c>
       <c r="C10">
-        <v>20.91337888571658</v>
+        <v>11.78064162991518</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.24461101593319</v>
+        <v>10.12391431551542</v>
       </c>
       <c r="F10">
-        <v>78.68611073749474</v>
+        <v>65.40361354098171</v>
       </c>
       <c r="G10">
-        <v>2.073605497251471</v>
+        <v>3.774622370291258</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.95903847197061</v>
+        <v>13.11141074842286</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.41920652509316</v>
+        <v>9.733197465744684</v>
       </c>
       <c r="M10">
-        <v>11.93755594363496</v>
+        <v>18.82991885427995</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.29549905397252</v>
+        <v>25.46197415585464</v>
       </c>
       <c r="C11">
-        <v>21.81397852556215</v>
+        <v>12.10443109871545</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.66056553343478</v>
+        <v>10.23771238428187</v>
       </c>
       <c r="F11">
-        <v>81.28837507146019</v>
+        <v>66.13568065632846</v>
       </c>
       <c r="G11">
-        <v>2.060413759061666</v>
+        <v>3.771161935831185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.2624962055906</v>
+        <v>13.19000347088513</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.528160104170129</v>
+        <v>9.694339327514742</v>
       </c>
       <c r="M11">
-        <v>12.46402239400948</v>
+        <v>18.7850946417649</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.7266314340649</v>
+        <v>25.51810738865101</v>
       </c>
       <c r="C12">
-        <v>22.15288362002098</v>
+        <v>12.22537352718984</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.81734329535683</v>
+        <v>10.28048402039985</v>
       </c>
       <c r="F12">
-        <v>82.27212132007497</v>
+        <v>66.41179021458967</v>
       </c>
       <c r="G12">
-        <v>2.055378276196769</v>
+        <v>3.76987409160364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.37796931618987</v>
+        <v>13.21963097842466</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.56961819407997</v>
+        <v>9.679903993112484</v>
       </c>
       <c r="M12">
-        <v>12.66227403628083</v>
+        <v>18.76898447374727</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63383806514786</v>
+        <v>25.50596146923756</v>
       </c>
       <c r="C13">
-        <v>22.07997687738028</v>
+        <v>12.19940207905855</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.78360629807867</v>
+        <v>10.27128699699678</v>
       </c>
       <c r="F13">
-        <v>82.06030365021981</v>
+        <v>66.3523771204014</v>
       </c>
       <c r="G13">
-        <v>2.056464821050995</v>
+        <v>3.77015045193393</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.35307154423137</v>
+        <v>13.21325622169893</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.560678573396579</v>
+        <v>9.683000497978002</v>
       </c>
       <c r="M13">
-        <v>12.61961902638846</v>
+        <v>18.77241561295433</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.33099633163559</v>
+        <v>25.46656668871028</v>
       </c>
       <c r="C14">
-        <v>21.84189880611429</v>
+        <v>12.11441507812274</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.67347676305625</v>
+        <v>10.24123778826811</v>
       </c>
       <c r="F14">
-        <v>81.36933323986442</v>
+        <v>66.15841955821044</v>
       </c>
       <c r="G14">
-        <v>2.060000390068117</v>
+        <v>3.771055533249272</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.27198372181496</v>
+        <v>13.19244366375428</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.531566172217556</v>
+        <v>9.693146132820797</v>
       </c>
       <c r="M14">
-        <v>12.48035230716454</v>
+        <v>18.78375191662102</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.14530996266518</v>
+        <v>25.44260282438995</v>
       </c>
       <c r="C15">
-        <v>21.69581389878265</v>
+        <v>12.0621379837067</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.6059322351532</v>
+        <v>10.22278933507538</v>
       </c>
       <c r="F15">
-        <v>80.94592073568991</v>
+        <v>66.0394654757996</v>
       </c>
       <c r="G15">
-        <v>2.062160296293424</v>
+        <v>3.771612852729306</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.22239469353028</v>
+        <v>13.17967774579651</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.513763646863612</v>
+        <v>9.6993969689127</v>
       </c>
       <c r="M15">
-        <v>12.39491629269226</v>
+        <v>18.79080832612991</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.07772521610973</v>
+        <v>25.30786235983332</v>
       </c>
       <c r="C16">
-        <v>20.85418418047729</v>
+        <v>11.75925260821422</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.21730910437289</v>
+        <v>10.11643352547826</v>
       </c>
       <c r="F16">
-        <v>78.51573359553775</v>
+        <v>65.35562560179031</v>
       </c>
       <c r="G16">
-        <v>2.074462918613698</v>
+        <v>3.774851682641195</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.93927348768258</v>
+        <v>13.10625615463603</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.412107607781415</v>
+        <v>9.735776115627687</v>
       </c>
       <c r="M16">
-        <v>11.90297099225105</v>
+        <v>18.8329689024102</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.41906242083422</v>
+        <v>25.22754735345756</v>
       </c>
       <c r="C17">
-        <v>20.33330628598093</v>
+        <v>11.570568998335</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.97729769276084</v>
+        <v>10.05063789777369</v>
       </c>
       <c r="F17">
-        <v>77.02041906491597</v>
+        <v>64.93432461679328</v>
       </c>
       <c r="G17">
-        <v>2.081956391862013</v>
+        <v>3.776878949161209</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.76636274110993</v>
+        <v>13.06098297291457</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.44267328265072</v>
+        <v>9.758592788949686</v>
       </c>
       <c r="M17">
-        <v>11.59874454826502</v>
+        <v>18.8603677407821</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.03862223546686</v>
+        <v>25.18222745328625</v>
       </c>
       <c r="C18">
-        <v>20.03182285694402</v>
+        <v>11.46101971588521</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.83858128162293</v>
+        <v>10.01259880059664</v>
       </c>
       <c r="F18">
-        <v>76.15832229423111</v>
+        <v>64.69140354281073</v>
       </c>
       <c r="G18">
-        <v>2.08625148662015</v>
+        <v>3.778059864464355</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.66713448519222</v>
+        <v>13.0348600916099</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.470457984896373</v>
+        <v>9.771900290475131</v>
       </c>
       <c r="M18">
-        <v>11.42274147308162</v>
+        <v>18.87668965989719</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.90951870526387</v>
+        <v>25.16703449694991</v>
       </c>
       <c r="C19">
-        <v>19.92940282754455</v>
+        <v>11.42375568738313</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.7914927075816</v>
+        <v>9.999686551438419</v>
       </c>
       <c r="F19">
-        <v>75.86604971502243</v>
+        <v>64.60905707400441</v>
       </c>
       <c r="G19">
-        <v>2.087703589026385</v>
+        <v>3.778462264044786</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.63357111253411</v>
+        <v>13.02600128599844</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.479949206957078</v>
+        <v>9.77643762224066</v>
       </c>
       <c r="M19">
-        <v>11.36296354255633</v>
+        <v>18.88231253692908</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.48933858796858</v>
+        <v>25.23600675134699</v>
       </c>
       <c r="C20">
-        <v>20.38894554798159</v>
+        <v>11.59076137752967</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.00291481272216</v>
+        <v>10.05766231258268</v>
       </c>
       <c r="F20">
-        <v>77.17980010451568</v>
+        <v>64.97923620756941</v>
       </c>
       <c r="G20">
-        <v>2.08116034935665</v>
+        <v>3.776661603900151</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.78474480849707</v>
+        <v>13.06581101214485</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.437571577064964</v>
+        <v>9.756144887478314</v>
       </c>
       <c r="M20">
-        <v>11.63123285642155</v>
+        <v>18.85739281035193</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.41998569516281</v>
+        <v>25.47810325779687</v>
       </c>
       <c r="C21">
-        <v>21.91187988095186</v>
+        <v>12.1394238447465</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.70584205621104</v>
+        <v>10.25007285129884</v>
       </c>
       <c r="F21">
-        <v>81.57232121348517</v>
+        <v>66.21542105256043</v>
       </c>
       <c r="G21">
-        <v>2.058963134620456</v>
+        <v>3.770789078417329</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.29578416950538</v>
+        <v>13.19856050128486</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.540110779929416</v>
+        <v>9.690158542980944</v>
       </c>
       <c r="M21">
-        <v>12.52128480465768</v>
+        <v>18.7803986981712</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.67277544406617</v>
+        <v>25.64382064959544</v>
       </c>
       <c r="C22">
-        <v>22.89519800492283</v>
+        <v>12.48823918783705</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.16112990141209</v>
+        <v>10.37394277321505</v>
       </c>
       <c r="F22">
-        <v>84.43423254654444</v>
+        <v>67.01680138655274</v>
       </c>
       <c r="G22">
-        <v>2.044212803340718</v>
+        <v>3.76708238335764</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.63317381778417</v>
+        <v>13.28453675468677</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.661288472116305</v>
+        <v>9.648660522480917</v>
       </c>
       <c r="M22">
-        <v>13.09676738046041</v>
+        <v>18.7351150242127</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.00466825974023</v>
+        <v>25.55470358951705</v>
       </c>
       <c r="C23">
-        <v>22.37121897154209</v>
+        <v>12.30299235583367</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.91840802612733</v>
+        <v>10.30800997320665</v>
       </c>
       <c r="F23">
-        <v>82.90705261247591</v>
+        <v>66.5897445350214</v>
       </c>
       <c r="G23">
-        <v>2.052113593293336</v>
+        <v>3.769048757349729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.45271348255539</v>
+        <v>13.2387234320264</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.596458386918772</v>
+        <v>9.67066033751415</v>
       </c>
       <c r="M23">
-        <v>12.79003427694902</v>
+        <v>18.7588217717626</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.45757228633226</v>
+        <v>25.23217959345524</v>
       </c>
       <c r="C24">
-        <v>20.36379739076111</v>
+        <v>11.58163573604691</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.99133560713912</v>
+        <v>10.05448723434332</v>
       </c>
       <c r="F24">
-        <v>77.10775156694336</v>
+        <v>64.95893387395738</v>
       </c>
       <c r="G24">
-        <v>2.08152027954283</v>
+        <v>3.776759817671207</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.77643372775725</v>
+        <v>13.06362855016396</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.439876445592552</v>
+        <v>9.757250992148322</v>
       </c>
       <c r="M24">
-        <v>11.6165483457186</v>
+        <v>18.85873600136892</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73854080142489</v>
+        <v>24.91788983770538</v>
       </c>
       <c r="C25">
-        <v>18.12454178927372</v>
+        <v>10.76494894192883</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.96525232291641</v>
+        <v>9.773652116430362</v>
       </c>
       <c r="F25">
-        <v>70.77264222609529</v>
+        <v>63.17766129709469</v>
       </c>
       <c r="G25">
-        <v>2.112707882290226</v>
+        <v>3.785647273890865</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.0551832347001</v>
+        <v>12.87161485726535</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.650818360550468</v>
+        <v>9.857692458735089</v>
       </c>
       <c r="M25">
-        <v>10.62771952749439</v>
+        <v>18.98801253705334</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.7167224679393</v>
+        <v>21.89194046032544</v>
       </c>
       <c r="C2">
-        <v>10.13485524762043</v>
+        <v>16.3922676395792</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.561315595542441</v>
+        <v>9.180440571990996</v>
       </c>
       <c r="F2">
-        <v>61.85349413635895</v>
+        <v>66.00935692554019</v>
       </c>
       <c r="G2">
-        <v>3.792688912083429</v>
+        <v>2.135666073668681</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.72773707422013</v>
+        <v>11.52605512239168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.9377712289069</v>
+        <v>3.819343512003987</v>
       </c>
       <c r="M2">
-        <v>19.10156422396014</v>
+        <v>10.33557318442523</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.59982259580825</v>
+        <v>20.62737099329364</v>
       </c>
       <c r="C3">
-        <v>9.692736206038283</v>
+        <v>15.15836785824643</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.414366341636255</v>
+        <v>8.628077213248933</v>
       </c>
       <c r="F3">
-        <v>60.95161973743883</v>
+        <v>62.71284396740155</v>
       </c>
       <c r="G3">
-        <v>3.797775535139773</v>
+        <v>2.151398744347988</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.62877527113188</v>
+        <v>11.16697475150693</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.995897139369156</v>
+        <v>3.940808403489392</v>
       </c>
       <c r="M3">
-        <v>19.18990972600128</v>
+        <v>10.17080536190673</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.53778568476006</v>
+        <v>19.84501427477105</v>
       </c>
       <c r="C4">
-        <v>9.414989312602454</v>
+        <v>14.3690533444545</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.322784199976056</v>
+        <v>8.278398848039259</v>
       </c>
       <c r="F4">
-        <v>60.39682743005936</v>
+        <v>60.65495192935667</v>
       </c>
       <c r="G4">
-        <v>3.801055111744827</v>
+        <v>2.161192697584689</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.56733002910251</v>
+        <v>10.9458944955001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.03350031881593</v>
+        <v>4.01876436899985</v>
       </c>
       <c r="M4">
-        <v>19.24975020337086</v>
+        <v>10.08498855456439</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.51497430297423</v>
+        <v>19.52492048855247</v>
       </c>
       <c r="C5">
-        <v>9.300425307040966</v>
+        <v>14.03915344570502</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.285146352752079</v>
+        <v>8.13322617131395</v>
       </c>
       <c r="F5">
-        <v>60.170664043623</v>
+        <v>59.80805330513228</v>
       </c>
       <c r="G5">
-        <v>3.80243106535808</v>
+        <v>2.165223833000919</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.54212457128045</v>
+        <v>10.85561425595174</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.04930677760731</v>
+        <v>4.051359918821591</v>
       </c>
       <c r="M5">
-        <v>19.27553947231622</v>
+        <v>10.05372851459706</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.51133611891744</v>
+        <v>19.47170018738743</v>
       </c>
       <c r="C6">
-        <v>9.281325014603052</v>
+        <v>13.98386814770518</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.278878135296926</v>
+        <v>8.108958446171268</v>
       </c>
       <c r="F6">
-        <v>60.1331101446881</v>
+        <v>59.66693560432959</v>
       </c>
       <c r="G6">
-        <v>3.802661932326575</v>
+        <v>2.165895789003338</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.53792935612864</v>
+        <v>10.84061110162626</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05196064032718</v>
+        <v>4.056821901668449</v>
       </c>
       <c r="M6">
-        <v>19.27990644674785</v>
+        <v>10.04875758764871</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.53746802174898</v>
+        <v>19.84070219519664</v>
       </c>
       <c r="C7">
-        <v>9.413449567500896</v>
+        <v>14.36463793871056</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.32227785686103</v>
+        <v>8.27645185077947</v>
       </c>
       <c r="F7">
-        <v>60.39377740204621</v>
+        <v>60.64356350655298</v>
       </c>
       <c r="G7">
-        <v>3.801073508165697</v>
+        <v>2.161246892987017</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.56699076449482</v>
+        <v>10.94467774556188</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.03371153294739</v>
+        <v>4.019200634713851</v>
       </c>
       <c r="M7">
-        <v>19.25009232701553</v>
+        <v>10.08455214172646</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.67440712053321</v>
+        <v>21.4572331861937</v>
       </c>
       <c r="C8">
-        <v>9.983829781387236</v>
+        <v>15.9732196054291</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.510942486233173</v>
+        <v>8.992143291576802</v>
       </c>
       <c r="F8">
-        <v>61.54285112532985</v>
+        <v>64.879804977654</v>
       </c>
       <c r="G8">
-        <v>3.794410433407048</v>
+        <v>2.141066908728482</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.69376000852095</v>
+        <v>11.40234305245669</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.95741686557553</v>
+        <v>3.860508840175195</v>
       </c>
       <c r="M8">
-        <v>19.13086229630577</v>
+        <v>10.27548475214541</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.0191449088072</v>
+        <v>24.60448623898238</v>
       </c>
       <c r="C9">
-        <v>11.04485168006714</v>
+        <v>18.89063724430215</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.869169514381964</v>
+        <v>10.31506797948274</v>
       </c>
       <c r="F9">
-        <v>63.78009015468538</v>
+        <v>72.9205143489353</v>
       </c>
       <c r="G9">
-        <v>3.782576701470478</v>
+        <v>2.102229703902406</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.93669711247255</v>
+        <v>12.29755795526971</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.822911945388444</v>
+        <v>3.57753902766445</v>
       </c>
       <c r="M9">
-        <v>18.94160389344235</v>
+        <v>10.77863167273605</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.31714446138998</v>
+        <v>27.15268255946167</v>
       </c>
       <c r="C10">
-        <v>11.78064162991518</v>
+        <v>20.91337888571679</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.12391431551542</v>
+        <v>11.24461101593334</v>
       </c>
       <c r="F10">
-        <v>65.40361354098171</v>
+        <v>78.68611073749496</v>
       </c>
       <c r="G10">
-        <v>3.774622370291258</v>
+        <v>2.073605497251566</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.11141074842286</v>
+        <v>12.95903847197069</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.733197465744684</v>
+        <v>3.419206525093182</v>
       </c>
       <c r="M10">
-        <v>18.82991885427995</v>
+        <v>11.93755594363493</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.46197415585464</v>
+        <v>28.29549905397249</v>
       </c>
       <c r="C11">
-        <v>12.10443109871545</v>
+        <v>21.81397852556197</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.23771238428187</v>
+        <v>11.66056553343478</v>
       </c>
       <c r="F11">
-        <v>66.13568065632846</v>
+        <v>81.28837507146052</v>
       </c>
       <c r="G11">
-        <v>3.771161935831185</v>
+        <v>2.060413759061655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.19000347088513</v>
+        <v>13.26249620559064</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.694339327514742</v>
+        <v>3.528160104170114</v>
       </c>
       <c r="M11">
-        <v>18.7850946417649</v>
+        <v>12.46402239400945</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.51810738865101</v>
+        <v>28.72663143406492</v>
       </c>
       <c r="C12">
-        <v>12.22537352718984</v>
+        <v>22.15288362002092</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.28048402039985</v>
+        <v>11.81734329535674</v>
       </c>
       <c r="F12">
-        <v>66.41179021458967</v>
+        <v>82.27212132007489</v>
       </c>
       <c r="G12">
-        <v>3.76987409160364</v>
+        <v>2.055378276196494</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.21963097842466</v>
+        <v>13.37796931618987</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.679903993112484</v>
+        <v>3.569618194080014</v>
       </c>
       <c r="M12">
-        <v>18.76898447374727</v>
+        <v>12.66227403628088</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.50596146923756</v>
+        <v>28.63383806514783</v>
       </c>
       <c r="C13">
-        <v>12.19940207905855</v>
+        <v>22.07997687738027</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.27128699699678</v>
+        <v>11.78360629807857</v>
       </c>
       <c r="F13">
-        <v>66.3523771204014</v>
+        <v>82.06030365021999</v>
       </c>
       <c r="G13">
-        <v>3.77015045193393</v>
+        <v>2.056464821051094</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.21325622169893</v>
+        <v>13.35307154423146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.683000497978002</v>
+        <v>3.560678573396587</v>
       </c>
       <c r="M13">
-        <v>18.77241561295433</v>
+        <v>12.61961902638844</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.46656668871028</v>
+        <v>28.33099633163545</v>
       </c>
       <c r="C14">
-        <v>12.11441507812274</v>
+        <v>21.84189880611422</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.24123778826811</v>
+        <v>11.6734767630561</v>
       </c>
       <c r="F14">
-        <v>66.15841955821044</v>
+        <v>81.36933323986399</v>
       </c>
       <c r="G14">
-        <v>3.771055533249272</v>
+        <v>2.06000039006773</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.19244366375428</v>
+        <v>13.27198372181492</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.693146132820797</v>
+        <v>3.531566172217525</v>
       </c>
       <c r="M14">
-        <v>18.78375191662102</v>
+        <v>12.48035230716447</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.44260282438995</v>
+        <v>28.14530996266508</v>
       </c>
       <c r="C15">
-        <v>12.0621379837067</v>
+        <v>21.69581389878246</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.22278933507538</v>
+        <v>11.60593223515326</v>
       </c>
       <c r="F15">
-        <v>66.0394654757996</v>
+        <v>80.94592073568963</v>
       </c>
       <c r="G15">
-        <v>3.771612852729306</v>
+        <v>2.062160296293186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.17967774579651</v>
+        <v>13.22239469353025</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.6993969689127</v>
+        <v>3.513763646863456</v>
       </c>
       <c r="M15">
-        <v>18.79080832612991</v>
+        <v>12.39491629269217</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.30786235983332</v>
+        <v>27.07772521610958</v>
       </c>
       <c r="C16">
-        <v>11.75925260821422</v>
+        <v>20.85418418047729</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.11643352547826</v>
+        <v>11.21730910437288</v>
       </c>
       <c r="F16">
-        <v>65.35562560179031</v>
+        <v>78.51573359553744</v>
       </c>
       <c r="G16">
-        <v>3.774851682641195</v>
+        <v>2.074462918613825</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.10625615463603</v>
+        <v>12.93927348768255</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.735776115627687</v>
+        <v>3.412107607781262</v>
       </c>
       <c r="M16">
-        <v>18.8329689024102</v>
+        <v>11.90297099225097</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22754735345756</v>
+        <v>26.41906242083422</v>
       </c>
       <c r="C17">
-        <v>11.570568998335</v>
+        <v>20.33330628598086</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.05063789777369</v>
+        <v>10.97729769276085</v>
       </c>
       <c r="F17">
-        <v>64.93432461679328</v>
+        <v>77.02041906491633</v>
       </c>
       <c r="G17">
-        <v>3.776878949161209</v>
+        <v>2.081956391862029</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.06098297291457</v>
+        <v>12.76636274111002</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.758592788949686</v>
+        <v>3.442673282650766</v>
       </c>
       <c r="M17">
-        <v>18.8603677407821</v>
+        <v>11.598744548265</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.18222745328625</v>
+        <v>26.03862223546684</v>
       </c>
       <c r="C18">
-        <v>11.46101971588521</v>
+        <v>20.03182285694382</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.01259880059664</v>
+        <v>10.83858128162296</v>
       </c>
       <c r="F18">
-        <v>64.69140354281073</v>
+        <v>76.15832229423074</v>
       </c>
       <c r="G18">
-        <v>3.778059864464355</v>
+        <v>2.086251486620135</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.0348600916099</v>
+        <v>12.66713448519215</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.771900290475131</v>
+        <v>3.470457984896501</v>
       </c>
       <c r="M18">
-        <v>18.87668965989719</v>
+        <v>11.42274147308159</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.16703449694991</v>
+        <v>25.90951870526388</v>
       </c>
       <c r="C19">
-        <v>11.42375568738313</v>
+        <v>19.92940282754459</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.999686551438419</v>
+        <v>10.79149270758158</v>
       </c>
       <c r="F19">
-        <v>64.60905707400441</v>
+        <v>75.86604971502211</v>
       </c>
       <c r="G19">
-        <v>3.778462264044786</v>
+        <v>2.087703589026509</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.02600128599844</v>
+        <v>12.63357111253405</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.77643762224066</v>
+        <v>3.479949206957137</v>
       </c>
       <c r="M19">
-        <v>18.88231253692908</v>
+        <v>11.36296354255635</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.23600675134699</v>
+        <v>26.48933858796854</v>
       </c>
       <c r="C20">
-        <v>11.59076137752967</v>
+        <v>20.3889455479814</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.05766231258268</v>
+        <v>11.00291481272218</v>
       </c>
       <c r="F20">
-        <v>64.97923620756941</v>
+        <v>77.17980010451542</v>
       </c>
       <c r="G20">
-        <v>3.776661603900151</v>
+        <v>2.081160349356681</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.06581101214485</v>
+        <v>12.78474480849706</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.756144887478314</v>
+        <v>3.437571577065092</v>
       </c>
       <c r="M20">
-        <v>18.85739281035193</v>
+        <v>11.63123285642149</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.47810325779687</v>
+        <v>28.41998569516278</v>
       </c>
       <c r="C21">
-        <v>12.1394238447465</v>
+        <v>21.91187988095194</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.25007285129884</v>
+        <v>11.70584205621105</v>
       </c>
       <c r="F21">
-        <v>66.21542105256043</v>
+        <v>81.57232121348461</v>
       </c>
       <c r="G21">
-        <v>3.770789078417329</v>
+        <v>2.058963134620562</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.19856050128486</v>
+        <v>13.29578416950531</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.690158542980944</v>
+        <v>3.540110779929401</v>
       </c>
       <c r="M21">
-        <v>18.7803986981712</v>
+        <v>12.52128480465761</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.64382064959544</v>
+        <v>29.67277544406609</v>
       </c>
       <c r="C22">
-        <v>12.48823918783705</v>
+        <v>22.89519800492278</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.37394277321505</v>
+        <v>12.16112990141199</v>
       </c>
       <c r="F22">
-        <v>67.01680138655274</v>
+        <v>84.43423254654428</v>
       </c>
       <c r="G22">
-        <v>3.76708238335764</v>
+        <v>2.044212803340593</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.28453675468677</v>
+        <v>13.63317381778415</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.648660522480917</v>
+        <v>3.661288472116311</v>
       </c>
       <c r="M22">
-        <v>18.7351150242127</v>
+        <v>13.09676738046038</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.55470358951705</v>
+        <v>29.00466825974023</v>
       </c>
       <c r="C23">
-        <v>12.30299235583367</v>
+        <v>22.37121897154222</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.30800997320665</v>
+        <v>11.91840802612733</v>
       </c>
       <c r="F23">
-        <v>66.5897445350214</v>
+        <v>82.90705261247597</v>
       </c>
       <c r="G23">
-        <v>3.769048757349729</v>
+        <v>2.052113593293198</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.2387234320264</v>
+        <v>13.45271348255541</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.67066033751415</v>
+        <v>3.596458386918779</v>
       </c>
       <c r="M23">
-        <v>18.7588217717626</v>
+        <v>12.79003427694901</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.23217959345524</v>
+        <v>26.4575722863322</v>
       </c>
       <c r="C24">
-        <v>11.58163573604691</v>
+        <v>20.36379739076111</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.05448723434332</v>
+        <v>10.99133560713904</v>
       </c>
       <c r="F24">
-        <v>64.95893387395738</v>
+        <v>77.10775156694325</v>
       </c>
       <c r="G24">
-        <v>3.776759817671207</v>
+        <v>2.081520279542718</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.06362855016396</v>
+        <v>12.77643372775724</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.757250992148322</v>
+        <v>3.439876445592519</v>
       </c>
       <c r="M24">
-        <v>18.85873600136892</v>
+        <v>11.6165483457186</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.91788983770538</v>
+        <v>23.73854080142484</v>
       </c>
       <c r="C25">
-        <v>10.76494894192883</v>
+        <v>18.12454178927369</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.773652116430362</v>
+        <v>9.965252322916548</v>
       </c>
       <c r="F25">
-        <v>63.17766129709469</v>
+        <v>70.77264222609558</v>
       </c>
       <c r="G25">
-        <v>3.785647273890865</v>
+        <v>2.112707882289972</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.87161485726535</v>
+        <v>12.05518323470016</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.857692458735089</v>
+        <v>3.650818360550633</v>
       </c>
       <c r="M25">
-        <v>18.98801253705334</v>
+        <v>10.62771952749442</v>
       </c>
       <c r="N25">
         <v>0</v>
